--- a/data/天津省.xlsx
+++ b/data/天津省.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,6 @@
           <t>license_fee_detail</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>effective_date</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -497,11 +492,6 @@
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2032-04-18</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -530,11 +520,6 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2033-07-04</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -563,11 +548,6 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2035-01-26</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -596,11 +576,6 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2035-01-27</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -629,11 +604,6 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2035-01-30</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -662,11 +632,6 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2035-02-02</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -695,11 +660,6 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2035-04-02</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -728,11 +688,6 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2035-04-10</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -761,11 +716,6 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2035-04-14</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -794,11 +744,6 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2035-04-17</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -827,11 +772,6 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2035-04-22</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -860,11 +800,6 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2035-04-30</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -893,11 +828,6 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2035-05-05</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -926,11 +856,6 @@
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2035-05-08</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -959,11 +884,6 @@
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2035-05-15</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -992,11 +912,6 @@
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2035-05-15</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1025,11 +940,6 @@
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2035-05-26</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1058,11 +968,6 @@
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2035-05-26</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1091,11 +996,6 @@
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2035-05-27</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1124,11 +1024,6 @@
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2035-06-08</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1157,11 +1052,6 @@
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2035-06-28</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1190,11 +1080,6 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2035-07-24</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1223,11 +1108,6 @@
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2035-09-08</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1256,11 +1136,6 @@
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2035-09-08</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1289,11 +1164,6 @@
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2035-10-13</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1322,11 +1192,6 @@
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2036-07-11</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1355,11 +1220,6 @@
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>2036-07-12</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1388,11 +1248,6 @@
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2036-11-03</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1421,11 +1276,6 @@
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2036-11-09</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1454,11 +1304,6 @@
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>2036-11-15</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1487,11 +1332,6 @@
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>2038-06-15</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1520,11 +1360,6 @@
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>2038-08-26</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1553,11 +1388,6 @@
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>2038-09-21</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1586,11 +1416,6 @@
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>2038-10-14</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1619,11 +1444,6 @@
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>2027-07-18</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1652,11 +1472,6 @@
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>2027-07-18</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1685,11 +1500,6 @@
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>2027-07-18</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1718,11 +1528,6 @@
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>2027-07-18</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1755,11 +1560,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>2039-10-11</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1792,11 +1592,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>2039-09-23</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1829,11 +1624,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>2039-09-16</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1866,11 +1656,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>2038-09-25</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1903,11 +1688,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>2038-08-01</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1940,11 +1720,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>2037-06-25</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1977,11 +1752,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>2036-09-10</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2014,11 +1784,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>2038-03-20</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2051,11 +1816,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>2037-09-26</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2088,11 +1848,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>2034-07-21</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2125,11 +1880,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>2033-12-17</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2162,11 +1912,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>2037-07-21</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2199,11 +1944,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>2039-09-23</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2236,11 +1976,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>2039-09-20</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2273,11 +2008,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>2039-07-23</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2310,11 +2040,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>2039-07-23</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2347,11 +2072,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>2039-07-23</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2384,11 +2104,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>2039-07-23</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2421,11 +2136,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>2039-05-06</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2458,11 +2168,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>2039-05-06</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2495,11 +2200,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>2038-09-25</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2532,11 +2232,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>2038-09-25</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2569,11 +2264,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>2038-09-11</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2606,11 +2296,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>2038-09-11</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2643,11 +2328,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>2038-09-10</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2680,11 +2360,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>2038-09-10</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2717,11 +2392,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>2038-06-26</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2754,11 +2424,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>2038-04-11</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2791,11 +2456,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>2037-09-29</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2828,11 +2488,6 @@
           <t>入门费为 2000元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>2034-05-30</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2865,11 +2520,6 @@
           <t>入门费为 0元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>2036-06-28</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2902,11 +2552,6 @@
           <t>入门费为 0元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>2035-10-30</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2939,11 +2584,6 @@
           <t>入门费为 0元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>2037-06-15</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2976,11 +2616,6 @@
           <t>入门费为 0元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>2036-06-28</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3013,11 +2648,6 @@
           <t>入门费为 0元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>2035-10-30</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3050,11 +2680,6 @@
           <t>入门费为 0元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>2036-12-13</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3087,11 +2712,6 @@
           <t>入门费为 0元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>2035-05-20</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3124,11 +2744,6 @@
           <t>入门费为 0元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>2035-06-30</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3161,11 +2776,6 @@
           <t>入门费为 0元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>2035-03-25</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3198,11 +2808,6 @@
           <t>入门费为 0元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>2035-05-26</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3235,11 +2840,6 @@
           <t>入门费为 0元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>2035-03-25</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3272,11 +2872,6 @@
           <t>入门费为 0元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>2035-03-25</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3309,11 +2904,6 @@
           <t>入门费为 0元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>2029-12-23</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3346,11 +2936,6 @@
           <t>入门费为 0元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>2035-11-05</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3383,11 +2968,6 @@
           <t>入门费为 0元，提成费按当年度合同产品净销售额的5 %提取。</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>2037-05-16</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3418,11 +2998,6 @@
       <c r="F85" t="inlineStr">
         <is>
           <t>入门费为 0元，提成费按当年度合同产品净销售额的5 %提取。</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>2034-11-24</t>
         </is>
       </c>
     </row>
